--- a/APM files/134802983/info.xlsx
+++ b/APM files/134802983/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5AB768-9080-714D-9375-D1FABA8FE1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2984410-67D3-E747-9DC1-924B711B9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{46715B47-9C3A-4F49-99EA-A770D4B4B75C}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17640" activeTab="1" xr2:uid="{46715B47-9C3A-4F49-99EA-A770D4B4B75C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="185">
   <si>
     <t>EID</t>
   </si>
@@ -637,7 +637,387 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1010,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BCD457-FC12-9F4C-B8EF-5EA012E9B51F}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,17 +2030,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F35" xr:uid="{E4BCD457-FC12-9F4C-B8EF-5EA012E9B51F}"/>
+  <conditionalFormatting sqref="A39:A1048576 A1:A35 A37">
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A40:A1048576 A1:A35 A37">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A1048576 A1:A35 A37">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1668,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6289259E-809D-784E-B88C-B1234B90157D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,7 +2084,348 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APM files/134802983/info.xlsx
+++ b/APM files/134802983/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577FCA84-8366-C943-89EE-79B799382ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC2439-099D-334E-AA7A-86A8FC5C854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" activeTab="1" xr2:uid="{46715B47-9C3A-4F49-99EA-A770D4B4B75C}"/>
+    <workbookView xWindow="2300" yWindow="1060" windowWidth="25600" windowHeight="27040" activeTab="1" xr2:uid="{46715B47-9C3A-4F49-99EA-A770D4B4B75C}"/>
   </bookViews>
   <sheets>
     <sheet name="RoomType" sheetId="2" r:id="rId1"/>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8486,7 +8486,7 @@
   <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="AE2" sqref="AE2:AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12776,80 +12776,56 @@
   <conditionalFormatting sqref="A2:A45">
     <cfRule type="duplicateValues" dxfId="25" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B45">
-    <cfRule type="duplicateValues" dxfId="24" priority="43"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A48">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A56">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A56">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A63">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A63">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A68">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A68">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A80">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A80">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2:B45">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
